--- a/DataTable/NestTable.xlsx
+++ b/DataTable/NestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{91A01C52-DEA1-684F-AF27-4A1F62284271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{92A07325-5F91-7C46-81A8-15F40C35CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3620" windowWidth="27100" windowHeight="15940"/>
+    <workbookView xWindow="4140" yWindow="3620" windowWidth="27100" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NestTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="18" uniqueCount="10">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="16" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -45,22 +45,21 @@
     <t>skipGem</t>
   </si>
   <si>
-    <t>costItemID</t>
+    <t>int</t>
   </si>
   <si>
-    <t>costItemCount</t>
+    <t>materialCount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">// </t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>materialID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -409,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="11">
     <border>
       <start/>
       <end/>
@@ -539,165 +538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -827,53 +667,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,9 +736,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 테마">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -975,7 +776,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1081,7 +882,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1223,113 +1024,106 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1"/>
-    <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>8</v>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>10</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
@@ -1353,11 +1147,9 @@
       <c r="H5" s="1">
         <v>10</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1">
@@ -1381,11 +1173,9 @@
       <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1">
@@ -1409,456 +1199,6 @@
       <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>10</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>10</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>17</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="19" thickBot="1">
-      <c r="A23" s="4">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F23" s="5">
-        <v>5000</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <v>10</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/DataTable/NestTable.xlsx
+++ b/DataTable/NestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{92A07325-5F91-7C46-81A8-15F40C35CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{271F8584-D08B-4781-BE09-65C85E9AE6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3620" windowWidth="27100" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NestTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="16" uniqueCount="9">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="17" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -55,12 +55,15 @@
     <t>materialID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>TableRowBase=FacilityTable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1032,19 +1035,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1148,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1174,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>

--- a/DataTable/NestTable.xlsx
+++ b/DataTable/NestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{271F8584-D08B-4781-BE09-65C85E9AE6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A8B3045C-39C2-413D-A7F4-71DE89917637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,8 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>TableRowBase=FacilityTable</t>
+    <t>Base=FacilityTable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1038,7 +1039,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
